--- a/ComDesAndOrg/CPU/cpu.xlsx
+++ b/ComDesAndOrg/CPU/cpu.xlsx
@@ -4,13 +4,375 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13035"/>
+    <workbookView windowWidth="14295" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>[31...26]</t>
+  </si>
+  <si>
+    <t>25....21/20...16/15...11</t>
+  </si>
+  <si>
+    <t>10...6</t>
+  </si>
+  <si>
+    <t>5..0</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>25....21/20...16</t>
+  </si>
+  <si>
+    <t>15...0</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>add $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>rs[5]+rt[5]=rd[5]</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>Add Immediate</t>
+  </si>
+  <si>
+    <t>addi $rt, $rs, immediate</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>rs[5]+?=rt[5]</t>
+  </si>
+  <si>
+    <t>imm16</t>
+  </si>
+  <si>
+    <t>Add Immediate Unsigned</t>
+  </si>
+  <si>
+    <t>addiu $rt, $rs, immediate</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>Add Unsigned</t>
+  </si>
+  <si>
+    <t>addu $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>and $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>rs[5]&amp;rt[5]=rd[5]</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>And Immediate</t>
+  </si>
+  <si>
+    <t>andi $rt, $rs, immediate</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>rs[5]&amp;?=rt[5]</t>
+  </si>
+  <si>
+    <t>Shift Left Logical</t>
+  </si>
+  <si>
+    <t>sll $rd, $rt, shamt</t>
+  </si>
+  <si>
+    <t>R-plus</t>
+  </si>
+  <si>
+    <t>$zero rt[5]&lt;&lt;?=rd[5]</t>
+  </si>
+  <si>
+    <t>s[5]</t>
+  </si>
+  <si>
+    <t>Shift Right Arithmetic</t>
+  </si>
+  <si>
+    <t>sra $rd, $rt, shamt</t>
+  </si>
+  <si>
+    <t>$zero rt[5]&gt;&gt;a?=rd[5]</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>Shift Right Logical</t>
+  </si>
+  <si>
+    <t>srl $rd, $rt, shamt</t>
+  </si>
+  <si>
+    <t>$zero rt[5]&gt;&gt;?=rd[5]</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>sub $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>rs[5]-rt[5]=rd[5]</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>or $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>rs[5]|rt[5]=rd[5]</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>Or Immediate</t>
+  </si>
+  <si>
+    <t>ori $rt, $rs, immediate</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>rs[5]|?=rt[5]</t>
+  </si>
+  <si>
+    <t>Nor</t>
+  </si>
+  <si>
+    <t>nor $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>rs[5] nor rt[5]=rd[5]</t>
+  </si>
+  <si>
+    <t>100111</t>
+  </si>
+  <si>
+    <t>Load Word</t>
+  </si>
+  <si>
+    <t>lw $rt, offset($rs)</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>base[5]/rt[5]</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>Store Word</t>
+  </si>
+  <si>
+    <t>sw $rt, offset($rs)</t>
+  </si>
+  <si>
+    <t>101011</t>
+  </si>
+  <si>
+    <t>Branch on Equal</t>
+  </si>
+  <si>
+    <t>beq $rs, $rt, label</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>offset[17:2]</t>
+  </si>
+  <si>
+    <t>Branch on Not Equal</t>
+  </si>
+  <si>
+    <t>bne $rs, $rt, label</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>Set Less Than</t>
+  </si>
+  <si>
+    <t>slt $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>101010</t>
+  </si>
+  <si>
+    <t>Set Less Than Immediate</t>
+  </si>
+  <si>
+    <t>slti $rt, $rs, immediate</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>Set Less Than Unsigned</t>
+  </si>
+  <si>
+    <t>sltu $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>j label</t>
+  </si>
+  <si>
+    <t>imm26</t>
+  </si>
+  <si>
+    <t>Jump and Link</t>
+  </si>
+  <si>
+    <t>jal label</t>
+  </si>
+  <si>
+    <t>Jump Register</t>
+  </si>
+  <si>
+    <t>jr $rs</t>
+  </si>
+  <si>
+    <t>rs $0 $0</t>
+  </si>
+  <si>
+    <r>
+      <t>syscall（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>display or exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>syscall</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>code20</t>
+  </si>
+  <si>
+    <t>SLLV</t>
+  </si>
+  <si>
+    <t>逻辑可变左移</t>
+  </si>
+  <si>
+    <t>SRLV</t>
+  </si>
+  <si>
+    <t>逻辑可变右移</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>加载半字</t>
+  </si>
+  <si>
+    <t>BLTZ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">小于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转移</t>
+    </r>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,13 +383,38 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -173,8 +560,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +576,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,12 +767,101 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,154 +967,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -943,15 +1473,619 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:7">
+      <c r="A28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5"/>
+    <row r="30" ht="15.75" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:3">
+      <c r="A32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ComDesAndOrg/CPU/cpu.xlsx
+++ b/ComDesAndOrg/CPU/cpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12615"/>
+    <workbookView windowWidth="14265" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>R</t>
   </si>
@@ -238,6 +238,9 @@
     <t>000100</t>
   </si>
   <si>
+    <t>rs[5]/rt[5]</t>
+  </si>
+  <si>
     <t>offset[17:2]</t>
   </si>
   <si>
@@ -280,6 +283,9 @@
     <t>j label</t>
   </si>
   <si>
+    <t>J-L</t>
+  </si>
+  <si>
     <t>imm26</t>
   </si>
   <si>
@@ -289,22 +295,35 @@
     <t>jal label</t>
   </si>
   <si>
+    <t>j-L</t>
+  </si>
+  <si>
     <t>Jump Register</t>
   </si>
   <si>
     <t>jr $rs</t>
   </si>
   <si>
+    <t>J-S</t>
+  </si>
+  <si>
     <t>rs $0 $0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>syscall（</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>display or exit</t>
@@ -335,12 +354,21 @@
     <t>逻辑可变左移</t>
   </si>
   <si>
+    <t>?=rs; rt[5]&lt;&lt;?=rd[5]</t>
+  </si>
+  <si>
     <t>SRLV</t>
   </si>
   <si>
     <t>逻辑可变右移</t>
   </si>
   <si>
+    <t>?=rs; rt[5]&gt;&gt;?=rd[5]</t>
+  </si>
+  <si>
+    <t>000110</t>
+  </si>
+  <si>
     <t>LH</t>
   </si>
   <si>
@@ -351,6 +379,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">小于 </t>
     </r>
     <r>
@@ -372,6 +406,12 @@
       <t>转移</t>
     </r>
   </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>rs, $0</t>
+  </si>
 </sst>
 </file>
 
@@ -379,11 +419,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +455,97 @@
       <color theme="1"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -425,16 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,14 +572,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,82 +601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -553,12 +608,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -582,13 +635,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,31 +713,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,133 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,17 +918,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +931,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -904,17 +962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,22 +1001,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,152 +1020,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1210,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1473,615 +1529,752 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.8" style="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="4:8">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:6">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="4:7">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="4:7">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>100000</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="13.5" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:6">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="13.5" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:7">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="13.5" spans="1:8">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:7">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="13.5" spans="1:8">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:6">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="13.5" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:7">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="13.5" spans="1:8">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:7">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="13.5" spans="1:8">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:7">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="13.5" spans="1:8">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:7">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="13.5" spans="1:8">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:7">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="13.5" spans="1:8">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:6">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="13.5" spans="1:7">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:7">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="13.5" spans="1:8">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:6">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="13.5" spans="1:7">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:6">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="13.5" spans="1:7">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:6">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="13.5" spans="1:7">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" ht="13.5" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="G20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="21" ht="13.5" spans="1:7">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="G21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:8">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="23" ht="13.5" spans="1:7">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" ht="13.5" spans="1:8">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" ht="13.5" spans="1:6">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="1:6">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" spans="1:8">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:8">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" spans="1:1">
+      <c r="A29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:8">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:8">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:7">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:7">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="1:7">
-      <c r="A28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5"/>
-    <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="12"/>
+      <c r="E33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/ComDesAndOrg/CPU/cpu.xlsx
+++ b/ComDesAndOrg/CPU/cpu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>ALU-op</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>pc</t>
+  </si>
+  <si>
+    <t>mem-data</t>
+  </si>
+  <si>
+    <t>mem-addr</t>
   </si>
   <si>
     <t>J</t>
@@ -138,6 +144,9 @@
     <t>&lt;</t>
   </si>
   <si>
+    <t>rt/0</t>
+  </si>
+  <si>
     <t>J-L</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
   </si>
   <si>
     <t>memory-out</t>
+  </si>
+  <si>
+    <t>alu-out</t>
   </si>
   <si>
     <t>newpc</t>
@@ -1614,10 +1626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1636,7 +1648,7 @@
     <col min="17" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="9:16">
+    <row r="1" ht="15" customHeight="1" spans="9:18">
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,6 +1672,12 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1667,25 +1685,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1693,44 +1711,44 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1738,44 +1756,44 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2"/>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:16">
@@ -1783,44 +1801,44 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1838,20 +1856,20 @@
         <v>0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1859,42 +1877,42 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1902,42 +1920,42 @@
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1955,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1977,46 +1995,46 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2034,18 +2052,18 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -2054,89 +2072,95 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="9"/>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16" s="9"/>
       <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>63</v>
+      <c r="R16" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:16">
@@ -2144,41 +2168,44 @@
         <v>28</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2196,18 +2223,18 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -2216,44 +2243,44 @@
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2261,44 +2288,44 @@
         <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H21" s="7"/>
       <c r="J21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2306,44 +2333,44 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2351,44 +2378,44 @@
         <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7"/>
       <c r="J23" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2396,44 +2423,44 @@
         <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7"/>
       <c r="J24" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2451,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2473,47 +2500,47 @@
         <v>1</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H27" s="13">
         <v>100000</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2521,47 +2548,47 @@
         <v>4</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2569,47 +2596,47 @@
         <v>5</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2617,47 +2644,47 @@
         <v>10</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2665,47 +2692,47 @@
         <v>11</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2713,47 +2740,47 @@
         <v>13</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2761,47 +2788,47 @@
         <v>18</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2809,47 +2836,47 @@
         <v>20</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:16">
@@ -2857,47 +2884,47 @@
         <v>26</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:16">
@@ -2905,47 +2932,47 @@
         <v>27</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2963,21 +2990,21 @@
         <v>0</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2985,47 +3012,47 @@
         <v>7</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3033,47 +3060,47 @@
         <v>8</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="H40" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3081,47 +3108,47 @@
         <v>9</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3139,38 +3166,38 @@
         <v>24</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="4:8">
       <c r="D44" s="19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/ComDesAndOrg/CPU/cpu.xlsx
+++ b/ComDesAndOrg/CPU/cpu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12615"/>
+    <workbookView windowWidth="23640" windowHeight="14205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>ALU-op</t>
   </si>
@@ -22,18 +22,33 @@
     <t>ALU-1</t>
   </si>
   <si>
+    <t>isIMM</t>
+  </si>
+  <si>
     <t>ALU-2</t>
   </si>
   <si>
     <t>ALU-shamt</t>
   </si>
   <si>
+    <t>reg-write-en</t>
+  </si>
+  <si>
+    <t>reg-data-mux</t>
+  </si>
+  <si>
     <t>reg-w-data</t>
   </si>
   <si>
+    <t>regaddrmux</t>
+  </si>
+  <si>
     <t>reg-w-addr</t>
   </si>
   <si>
+    <t>pcmux</t>
+  </si>
+  <si>
     <t>pc</t>
   </si>
   <si>
@@ -82,7 +97,13 @@
     <t>rs</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>rt</t>
+  </si>
+  <si>
+    <t>?2</t>
   </si>
   <si>
     <t>?offset|00+newpc</t>
@@ -168,6 +189,9 @@
     <t>imm26</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>imm26|00</t>
   </si>
   <si>
@@ -183,9 +207,15 @@
     <t>000011</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">newpc </t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -541,6 +571,12 @@
   </si>
   <si>
     <t>$zero rt[5]&gt;&gt;?=rd[5]</t>
+  </si>
+  <si>
+    <t>25..6</t>
+  </si>
+  <si>
+    <t>5...0</t>
   </si>
   <si>
     <t>S</t>
@@ -584,7 +620,13 @@
     <t>other-&gt;display $4</t>
   </si>
   <si>
+    <t>000111</t>
+  </si>
+  <si>
     <t>101100</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
   <si>
     <t>101110</t>
@@ -598,10 +640,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -644,26 +686,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,8 +724,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,20 +762,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -719,9 +770,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,53 +808,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,25 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +929,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,25 +989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,43 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,31 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,13 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,17 +1090,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,23 +1102,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,6 +1138,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1132,16 +1168,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,145 +1192,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,22 +1401,22 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1695,10 +1737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1711,227 +1753,281 @@
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.9" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.8" style="1"/>
-    <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
-    <col min="10" max="15" width="8.8" style="1"/>
-    <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.2" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.8" style="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8" style="1"/>
+    <col min="11" max="16" width="8.8" style="2"/>
+    <col min="17" max="17" width="9.6" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.1" style="2" customWidth="1"/>
+    <col min="19" max="20" width="10" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.2" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.9" style="2" customWidth="1"/>
+    <col min="23" max="23" width="14.6" style="2" customWidth="1"/>
+    <col min="24" max="25" width="8.8" style="2"/>
+    <col min="26" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="11:20">
-      <c r="K1" s="1" t="s">
+    <row r="1" ht="15" customHeight="1" spans="11:25">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="U1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="3">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="3">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:18">
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:23">
       <c r="A5" s="3">
         <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1943,122 +2039,148 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="8">
         <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="I8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="8">
         <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>42</v>
+      <c r="I9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2070,82 +2192,94 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>62</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="3">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>21</v>
+      <c r="W12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2157,197 +2291,240 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10">
         <v>0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="22"/>
+      <c r="I15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="14"/>
       <c r="K15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>55</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="22"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:20">
+        <v>75</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:25">
       <c r="A17" s="10">
         <v>28</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="L17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="M17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="27" t="s">
+      <c r="P17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="T17" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2359,289 +2536,364 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8">
         <v>0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="I19" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="8">
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="V20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="8">
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="V21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="8">
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="V22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="8">
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="V23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="8">
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>70</v>
+      <c r="V24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2653,591 +2905,741 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="25"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="14">
         <v>0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>62</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="14">
         <v>1</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H27" s="14">
         <v>100000</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="22">
+      <c r="I27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="14">
         <v>100000</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="K27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="14">
         <v>4</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="I28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="14">
         <v>5</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="M29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="14">
         <v>10</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="V30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="14">
         <v>11</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>132</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="14">
         <v>13</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>136</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="14">
         <v>18</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>142</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="14">
         <v>20</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:18">
+      <c r="I34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:23">
       <c r="A35" s="14">
         <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:18">
+      <c r="I35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:23">
       <c r="A36" s="14">
         <v>27</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3249,203 +3651,248 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="18">
         <v>0</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>161</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="18">
         <v>7</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>84</v>
+      <c r="L39" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>55</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="18">
         <v>8</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L40" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>55</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="18">
         <v>9</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D41" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="H41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>84</v>
+      <c r="N41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3457,239 +3904,258 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:10">
-      <c r="A43" s="8">
-        <v>24</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="21" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="4:10">
+      <c r="H43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:10">
+      <c r="A44" s="8">
+        <v>24</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D44" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="8:12">
-      <c r="H50" s="22">
+        <v>181</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="4:10">
+      <c r="D45" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10">
+      <c r="H51" s="14">
         <v>100000</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="8:12">
-      <c r="H51" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="8:12">
-      <c r="H52" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="10:12">
-      <c r="J53" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="8:12">
-      <c r="H54" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="2"/>
+      <c r="J51" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10">
+      <c r="H53" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="55" spans="8:12">
-      <c r="H55" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="22"/>
+      <c r="H55" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="L55" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="10:12">
-      <c r="J56" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="8:12">
-      <c r="H57" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="10:12">
-      <c r="J58" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="2" t="s">
-        <v>65</v>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12">
+      <c r="H58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="10:12">
-      <c r="J59" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="8:12">
-      <c r="H60" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="26" t="s">
+      <c r="J59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="10:12">
+      <c r="J60" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12">
+      <c r="H61" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12">
+      <c r="H62" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="L62" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="8:12">
-      <c r="H61" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="8:12">
-      <c r="H62" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="2" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="63" spans="8:12">
-      <c r="H63" s="23"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="8:8">
-      <c r="H64" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8">
-      <c r="H65" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="10:12">
-      <c r="J66" s="25"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="10:12">
-      <c r="J67" s="25"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="10:12">
-      <c r="J68" s="25"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="10:12">
-      <c r="J69" s="25"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="H63" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12">
+      <c r="H64" s="18"/>
+      <c r="J64" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12">
+      <c r="H65" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="7"/>
     </row>
   </sheetData>
   <sortState ref="J50:L69">
